--- a/Examples/Wire World/excel/example.xlsx
+++ b/Examples/Wire World/excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\PycharmProjects\MasterDegree\Examples\Wire World\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\Desktop\homework\MasterDegree\Examples\Wire World\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CF445B-2920-44D2-8D84-8B284FAD3A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90772410-3C97-46C7-850C-0F2300210C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{CACAD4C5-5037-44B5-AF02-A22C5524F177}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{CACAD4C5-5037-44B5-AF02-A22C5524F177}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -112,9 +113,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFFCC00"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF080808"/>
     </mruColors>
   </colors>
@@ -429,22 +430,22 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -518,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -592,20 +593,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
@@ -617,13 +618,13 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
@@ -666,14 +667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
@@ -697,7 +698,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3">
@@ -715,7 +716,7 @@
       <c r="P7" s="3">
         <v>0</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
@@ -740,14 +741,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3">
@@ -771,7 +772,7 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
@@ -789,10 +790,10 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
@@ -814,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -860,7 +861,7 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
@@ -872,7 +873,7 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
@@ -888,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -934,16 +935,16 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
@@ -958,11 +959,11 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1008,7 +1009,7 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>0</v>
       </c>
       <c r="Q11" s="3">
@@ -1020,7 +1021,7 @@
       <c r="S11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
@@ -1036,20 +1037,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
@@ -1067,7 +1068,7 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
@@ -1085,10 +1086,10 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
@@ -1110,14 +1111,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
@@ -1141,7 +1142,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" s="3">
@@ -1153,13 +1154,13 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
@@ -1184,14 +1185,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
@@ -1200,13 +1201,13 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
@@ -1215,7 +1216,7 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
@@ -1258,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2220,17 +2221,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>

--- a/Examples/Wire World/excel/example.xlsx
+++ b/Examples/Wire World/excel/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\Desktop\homework\MasterDegree\Examples\Wire World\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90772410-3C97-46C7-850C-0F2300210C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37ABC58-6093-4EB6-9FC3-EBC422322F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{CACAD4C5-5037-44B5-AF02-A22C5524F177}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73E6186-CDDF-496E-A379-AE8DB6C0E685}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +439,9 @@
       <c r="A1">
         <v>24</v>
       </c>
+      <c r="B1">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1407,832 +1410,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
